--- a/previous/data20210330.xlsx
+++ b/previous/data20210330.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehaiwu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyue\Documents\GitHub\WuGenealogy\previous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6765D-AE6A-4D4D-B3E9-B59D2CC16B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F4B9B6-ADB8-4E0D-92D7-DB7C20300D02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="500" windowWidth="17380" windowHeight="15860" xr2:uid="{BE040026-2525-2F41-8154-13C10946EE35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE040026-2525-2F41-8154-13C10946EE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -718,10 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴铭轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴云凡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,7 +786,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1216,7 +1212,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1833,7 +1829,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1878,7 +1874,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1999,7 +1995,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2219,7 +2215,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2334,7 +2330,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2436,7 +2432,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2563,7 +2559,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2691,6 +2687,10 @@
       <t>祁云兰(离)
 徐明曙</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴铭翰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2702,14 +2702,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2717,7 +2717,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2731,7 +2731,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2739,7 +2739,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2747,7 +2747,7 @@
     <font>
       <sz val="10"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2799,7 +2799,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2851,7 +2851,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3165,20 +3165,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2917E-BE49-8D43-B460-AF3709AE4A60}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C167" zoomScale="173" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" topLeftCell="D212" zoomScale="173" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3219,12 +3219,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28">
+    <row r="2" spans="1:12" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -3233,26 +3233,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28">
+    <row r="3" spans="1:12" ht="25.5">
       <c r="C3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28">
+    <row r="4" spans="1:12" ht="25.5">
       <c r="E4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -3266,37 +3266,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28">
+    <row r="6" spans="1:12" ht="25.5">
       <c r="F6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28">
+    <row r="7" spans="1:12" ht="25.5">
       <c r="H7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28">
+    <row r="8" spans="1:12" ht="25.5">
       <c r="J8" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>15</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="K9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3317,12 +3317,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29">
+    <row r="12" spans="1:12" ht="25.5">
       <c r="I12" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
@@ -3343,17 +3343,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14">
+    <row r="16" spans="1:12">
       <c r="J16" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" ht="25.5">
+      <c r="I17" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="17" spans="7:11" ht="28">
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>21</v>
@@ -3364,9 +3364,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="7:11" ht="28">
+    <row r="19" spans="7:11" ht="25.5">
       <c r="I19" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>22</v>
@@ -3377,26 +3377,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="7:11" ht="28">
+    <row r="21" spans="7:11" ht="25.5">
       <c r="G21" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="7:11" ht="28">
+    <row r="22" spans="7:11" ht="25.5">
       <c r="H22" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>25</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="23" spans="7:11">
       <c r="K23" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="7:11">
@@ -3412,26 +3412,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="7:11" ht="28">
+    <row r="25" spans="7:11" ht="25.5">
       <c r="H25" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="7:11" ht="28">
+    <row r="26" spans="7:11" ht="25.5">
       <c r="G26" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>30</v>
@@ -3442,9 +3442,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="7:11" ht="28">
+    <row r="28" spans="7:11" ht="25.5">
       <c r="J28" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>32</v>
@@ -3455,9 +3455,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="7:11" ht="28">
+    <row r="30" spans="7:11" ht="25.5">
       <c r="J30" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>34</v>
@@ -3468,9 +3468,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="7:11" ht="28">
+    <row r="32" spans="7:11" ht="25.5">
       <c r="J32" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>36</v>
@@ -3478,53 +3478,53 @@
     </row>
     <row r="33" spans="6:12">
       <c r="J33" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="6:12" ht="28">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" ht="25.5">
       <c r="I34" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="35" spans="6:12">
       <c r="J35" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="6:12" ht="28">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" ht="25.5">
       <c r="H36" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="6:12" ht="28">
+    <row r="37" spans="6:12" ht="25.5">
       <c r="J37" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="6:12" ht="40">
+    <row r="38" spans="6:12" ht="34.5">
       <c r="H38" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I38" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>40</v>
@@ -3540,12 +3540,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="6:12" ht="28">
+    <row r="41" spans="6:12" ht="25.5">
       <c r="H41" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>153</v>
@@ -3559,9 +3559,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="6:12" ht="28">
+    <row r="43" spans="6:12" ht="25.5">
       <c r="I43" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>43</v>
@@ -3572,71 +3572,71 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="6:12" ht="37">
+    <row r="45" spans="6:12" ht="32.25">
       <c r="F45" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" ht="25.5">
+      <c r="J46" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12" ht="25.5">
+      <c r="G47" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I45" s="5" t="s">
+      <c r="H47" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="6:12" ht="28">
-      <c r="J46" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="6:12" ht="28">
-      <c r="G47" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="K47" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="6:12" ht="28">
+    <row r="48" spans="6:12" ht="25.5">
       <c r="J48" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12" ht="25.5">
+      <c r="J49" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="49" spans="8:12" ht="28">
-      <c r="J49" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="50" spans="8:12">
@@ -3644,22 +3644,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="8:12" ht="28">
+    <row r="51" spans="8:12" ht="25.5">
       <c r="I51" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="8:12">
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="8:12">
@@ -3672,31 +3672,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="8:12" ht="28">
+    <row r="55" spans="8:12" ht="25.5">
       <c r="H55" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="8:12" ht="28">
+    <row r="56" spans="8:12" ht="25.5">
       <c r="I56" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="8:12" ht="37">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" ht="32.25">
       <c r="H57" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>52</v>
@@ -3707,20 +3707,20 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="8:12">
       <c r="J59" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="8:12" ht="28">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="8:12" ht="25.5">
       <c r="I60" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="61" spans="8:12">
@@ -3728,17 +3728,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="8:12" ht="39">
+    <row r="62" spans="8:12" ht="34.5">
       <c r="I62" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="8:12" ht="28">
+    <row r="63" spans="8:12" ht="25.5">
       <c r="H63" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>55</v>
@@ -3749,26 +3749,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="5:12" ht="28">
+    <row r="65" spans="5:12" ht="25.5">
       <c r="G65" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="5:12" ht="28">
+    <row r="66" spans="5:12" ht="25.5">
       <c r="J66" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>59</v>
@@ -3782,54 +3782,54 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="5:12" ht="28">
+    <row r="68" spans="5:12" ht="25.5">
       <c r="H68" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I68" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="5:12" ht="28">
+    <row r="69" spans="5:12" ht="25.5">
       <c r="I69" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="5:12" ht="42">
+    <row r="70" spans="5:12" ht="38.25">
       <c r="E70" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H70" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" ht="25.5">
+      <c r="H71" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="71" spans="5:12" ht="29">
-      <c r="H71" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="I71" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>64</v>
@@ -3840,7 +3840,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="5:12">
@@ -3848,26 +3848,26 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" ht="25.5">
+      <c r="J74" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="74" spans="5:12" ht="28">
-      <c r="J74" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="K74" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="5:12" ht="28">
+    <row r="75" spans="5:12" ht="25.5">
       <c r="J75" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>67</v>
@@ -3878,23 +3878,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="5:12" ht="28">
+    <row r="77" spans="5:12" ht="25.5">
       <c r="J77" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="5:12" ht="28">
+    <row r="78" spans="5:12" ht="25.5">
       <c r="I78" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>69</v>
@@ -3905,53 +3905,53 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="5:12" ht="28">
+    <row r="80" spans="5:12" ht="25.5">
       <c r="G80" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="7:12" ht="28">
+    <row r="81" spans="7:12" ht="25.5">
       <c r="K81" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12" ht="25.5">
+      <c r="I82" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="7:12" ht="25.5">
+      <c r="I83" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="7:12" ht="25.5">
+      <c r="J84" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="K84" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="82" spans="7:12" ht="28">
-      <c r="I82" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" spans="7:12" ht="28">
-      <c r="I83" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="84" spans="7:12" ht="28">
-      <c r="J84" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>72</v>
@@ -3962,37 +3962,37 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="7:12" ht="28">
+    <row r="86" spans="7:12" ht="25.5">
       <c r="H86" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="7:12" ht="25.5">
+      <c r="G87" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="87" spans="7:12" ht="29">
-      <c r="G87" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="I87" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="7:12" ht="28">
+    <row r="88" spans="7:12" ht="25.5">
       <c r="J88" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>76</v>
@@ -4003,9 +4003,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="7:12" ht="28">
+    <row r="90" spans="7:12" ht="25.5">
       <c r="J90" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>77</v>
@@ -4013,59 +4013,59 @@
     </row>
     <row r="91" spans="7:12">
       <c r="K91" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="7:12" ht="25.5">
+      <c r="J92" s="5" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="92" spans="7:12" ht="28">
-      <c r="J92" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="K92" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="7:12" ht="28">
+    <row r="93" spans="7:12" ht="25.5">
       <c r="J93" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="7:12" ht="28">
+    <row r="94" spans="7:12" ht="25.5">
       <c r="I94" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="7:12" ht="28">
+    <row r="95" spans="7:12" ht="25.5">
       <c r="J95" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="7:12" ht="28">
+    <row r="96" spans="7:12" ht="25.5">
       <c r="J96" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>25</v>
@@ -4076,23 +4076,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="8:11" ht="28">
+    <row r="98" spans="8:11" ht="25.5">
       <c r="H98" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="8:11" ht="28">
+    <row r="99" spans="8:11" ht="25.5">
       <c r="I99" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>88</v>
@@ -4108,9 +4108,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="8:11" ht="28">
+    <row r="102" spans="8:11" ht="25.5">
       <c r="I102" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>90</v>
@@ -4126,12 +4126,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="8:11" ht="28">
+    <row r="105" spans="8:11" ht="25.5">
       <c r="H105" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>92</v>
@@ -4142,56 +4142,56 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="8:11" ht="28">
+    <row r="107" spans="8:11" ht="25.5">
       <c r="H107" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I107" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="J107" s="5" t="s">
+    </row>
+    <row r="108" spans="8:11" ht="25.5">
+      <c r="I108" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="108" spans="8:11" ht="28">
-      <c r="I108" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="J108" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K108" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="109" spans="8:11">
       <c r="I109" s="5"/>
       <c r="J109" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" ht="25.5">
+      <c r="I110" s="5" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="110" spans="8:11" ht="28">
-      <c r="I110" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="8:11" ht="28">
+    <row r="111" spans="8:11" ht="25.5">
       <c r="I111" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" ht="25.5">
+      <c r="I112" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="112" spans="8:11" ht="28">
-      <c r="I112" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>95</v>
@@ -4200,29 +4200,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="6:11" ht="37">
+    <row r="113" spans="6:11" ht="32.25">
       <c r="G113" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="6:11" ht="28">
+    <row r="114" spans="6:11" ht="25.5">
       <c r="H114" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>98</v>
@@ -4236,9 +4236,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="6:11" ht="28">
+    <row r="116" spans="6:11" ht="25.5">
       <c r="J116" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>101</v>
@@ -4249,31 +4249,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="6:11" ht="28">
+    <row r="118" spans="6:11" ht="25.5">
       <c r="G118" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="6:11" ht="29">
+    <row r="119" spans="6:11" ht="25.5">
       <c r="I119" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="6:11" ht="28">
+    <row r="120" spans="6:11" ht="25.5">
       <c r="H120" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>102</v>
@@ -4292,9 +4292,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="6:11" ht="28">
+    <row r="123" spans="6:11" ht="25.5">
       <c r="I123" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>51</v>
@@ -4305,18 +4305,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="6:11" ht="28">
+    <row r="125" spans="6:11" ht="25.5">
       <c r="F125" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>98</v>
@@ -4325,9 +4325,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="6:11" ht="28">
+    <row r="126" spans="6:11" ht="25.5">
       <c r="J126" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>112</v>
@@ -4341,9 +4341,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="6:11" ht="28">
+    <row r="128" spans="6:11" ht="25.5">
       <c r="I128" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>114</v>
@@ -4352,28 +4352,28 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="4:12" ht="28">
+    <row r="129" spans="4:12" ht="25.5">
       <c r="J129" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="4:12" ht="28">
+    <row r="130" spans="4:12" ht="25.5">
       <c r="I130" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J130" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="K130" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="131" spans="4:12">
       <c r="J131" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="4:12">
@@ -4401,9 +4401,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="4:12" ht="28">
+    <row r="137" spans="4:12" ht="25.5">
       <c r="G137" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>108</v>
@@ -4420,32 +4420,32 @@
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="4:12" ht="42">
+    <row r="139" spans="4:12" ht="35.25">
       <c r="D139" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="4:12" ht="25">
+    <row r="140" spans="4:12" ht="21.75">
       <c r="J140" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="4:12">
@@ -4455,18 +4455,18 @@
     </row>
     <row r="142" spans="4:12">
       <c r="J142" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="143" spans="4:12" ht="40">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="4:12" ht="33.75">
       <c r="I143" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>125</v>
@@ -4477,9 +4477,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="8:12" ht="28">
+    <row r="145" spans="8:12" ht="25.5">
       <c r="J145" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>112</v>
@@ -4490,20 +4490,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="8:12" ht="28">
+    <row r="147" spans="8:12" ht="25.5">
       <c r="J147" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="8:12" ht="28">
+    <row r="148" spans="8:12" ht="25.5">
       <c r="J148" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>128</v>
@@ -4529,15 +4529,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="8:12" ht="28">
+    <row r="153" spans="8:12" ht="25.5">
       <c r="I153" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>133</v>
@@ -4548,9 +4548,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="155" spans="8:12" ht="28">
+    <row r="155" spans="8:12" ht="25.5">
       <c r="J155" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K155" s="5" t="s">
         <v>65</v>
@@ -4563,59 +4563,59 @@
     </row>
     <row r="157" spans="8:12">
       <c r="I157" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="8:12">
       <c r="I158" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="8:12" ht="25.5">
+      <c r="H159" s="5" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="159" spans="8:12" ht="28">
-      <c r="H159" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="8:12" ht="28">
+    <row r="160" spans="8:12" ht="25.5">
       <c r="H160" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I160" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I160" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="161" spans="5:12" ht="28">
+    </row>
+    <row r="161" spans="5:12" ht="25.5">
       <c r="F161" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="5:12" ht="40">
+    <row r="162" spans="5:12" ht="33.75">
       <c r="F162" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>137</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>138</v>
@@ -4626,15 +4626,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="164" spans="5:12" ht="28">
+    <row r="164" spans="5:12" ht="25.5">
       <c r="I164" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>142</v>
@@ -4650,9 +4650,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="5:12" ht="40">
+    <row r="167" spans="5:12" ht="33.75">
       <c r="I167" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>143</v>
@@ -4663,76 +4663,76 @@
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="5:12" ht="28">
+    <row r="169" spans="5:12" ht="25.5">
       <c r="I169" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="5:12" ht="28">
+    <row r="170" spans="5:12" ht="25.5">
       <c r="I170" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K170" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="5:12">
+      <c r="K171" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="5:12" ht="14">
-      <c r="K171" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="5:12" ht="28">
+    <row r="172" spans="5:12" ht="25.5">
       <c r="E172" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="5:12" ht="28">
+    <row r="173" spans="5:12" ht="25.5">
       <c r="E173" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="5:12" ht="28">
+    <row r="174" spans="5:12" ht="25.5">
       <c r="J174" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K174" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="175" spans="5:12">
@@ -4740,20 +4740,20 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="5:12" ht="28">
+    <row r="176" spans="5:12" ht="25.5">
       <c r="J176" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="7:11" ht="28">
+    <row r="177" spans="7:11" ht="25.5">
       <c r="I177" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>148</v>
@@ -4764,9 +4764,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="7:11" ht="28">
+    <row r="179" spans="7:11" ht="25.5">
       <c r="I179" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>78</v>
@@ -4775,12 +4775,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="7:11" ht="28">
+    <row r="180" spans="7:11" ht="25.5">
       <c r="H180" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>151</v>
@@ -4791,52 +4791,52 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182" spans="7:11" ht="29">
+    <row r="182" spans="7:11" ht="25.5">
       <c r="I182" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="183" spans="7:11" ht="25.5">
+      <c r="H183" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I183" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J182" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="183" spans="7:11" ht="28">
-      <c r="H183" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I183" s="5" t="s">
+      <c r="J183" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J183" s="1" t="s">
+    </row>
+    <row r="184" spans="7:11" ht="25.5">
+      <c r="I184" s="5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="184" spans="7:11" ht="28">
-      <c r="I184" s="5" t="s">
+      <c r="J184" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="185" spans="7:11">
       <c r="I185" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="7:11">
       <c r="I186" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" spans="7:11" ht="25.5">
+      <c r="H187" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="187" spans="7:11" ht="29">
-      <c r="H187" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="I187" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>124</v>
@@ -4852,12 +4852,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="7:11" ht="28">
+    <row r="190" spans="7:11" ht="25.5">
       <c r="G190" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>121</v>
@@ -4868,34 +4868,34 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="7:11" ht="28">
+    <row r="192" spans="7:11" ht="25.5">
       <c r="G192" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="8:11" ht="40">
+    <row r="193" spans="8:11" ht="33.75">
       <c r="J193" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K193" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="8:11" ht="14">
+    <row r="194" spans="8:11">
       <c r="K194" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="8:11">
@@ -4903,25 +4903,25 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="8:11" ht="40">
+    <row r="196" spans="8:11" ht="33.75">
       <c r="I196" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="8:11">
       <c r="K197" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="198" spans="8:11" ht="28">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11" ht="25.5">
       <c r="J198" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>157</v>
@@ -4932,9 +4932,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="200" spans="8:11" ht="28">
+    <row r="200" spans="8:11" ht="25.5">
       <c r="I200" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>159</v>
@@ -4951,31 +4951,31 @@
         <v>162</v>
       </c>
     </row>
-    <row r="202" spans="8:11" ht="28">
+    <row r="202" spans="8:11" ht="25.5">
       <c r="I202" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="8:11" ht="28">
+    <row r="203" spans="8:11" ht="25.5">
       <c r="J203" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11" ht="25.5">
+      <c r="I204" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J204" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="204" spans="8:11" ht="28">
-      <c r="I204" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J204" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>163</v>
@@ -4991,23 +4991,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="8:11" ht="28">
+    <row r="207" spans="8:11" ht="25.5">
       <c r="H207" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="208" spans="8:11" ht="28">
+    <row r="208" spans="8:11" ht="25.5">
       <c r="J208" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>166</v>
@@ -5028,12 +5028,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="212" spans="7:11" ht="28">
+    <row r="212" spans="7:11" ht="25.5">
       <c r="H212" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>170</v>
@@ -5044,56 +5044,56 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="7:11" ht="28">
+    <row r="214" spans="7:11" ht="25.5">
       <c r="G214" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="215" spans="7:11" ht="28">
+    <row r="215" spans="7:11" ht="25.5">
       <c r="I215" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>173</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="7:11">
       <c r="K216" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="217" spans="7:11" ht="25.5">
+      <c r="I217" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K217" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="7:11" ht="28">
-      <c r="I217" s="5" t="s">
+    <row r="218" spans="7:11" ht="25.5">
+      <c r="I218" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J217" s="5" t="s">
+      <c r="J218" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="K217" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="218" spans="7:11" ht="28">
-      <c r="I218" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J218" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>105</v>
@@ -5101,83 +5101,83 @@
     </row>
     <row r="219" spans="7:11">
       <c r="J219" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="7:11" ht="25.5">
+      <c r="I220" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K220" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="220" spans="7:11" ht="28">
-      <c r="I220" s="5" t="s">
+    <row r="221" spans="7:11" ht="25.5">
+      <c r="I221" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="J220" s="5" t="s">
+      <c r="J221" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="K220" s="1" t="s">
+      <c r="K221" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="221" spans="7:11" ht="28">
-      <c r="I221" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="J221" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K221" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="222" spans="7:11">
       <c r="J222" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="223" spans="7:11" ht="25.5">
+      <c r="G223" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="J223" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="223" spans="7:11" ht="28">
-      <c r="G223" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H223" s="5" t="s">
+    <row r="224" spans="7:11" ht="25.5">
+      <c r="H224" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I223" s="5" t="s">
+      <c r="I224" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="J223" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="224" spans="7:11" ht="28">
-      <c r="H224" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I224" s="5" t="s">
+      <c r="J224" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="225" spans="7:10" ht="25.5">
+      <c r="I225" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="J224" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="K224" s="1" t="s">
+      <c r="J225" s="1" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="225" spans="7:10" ht="28">
-      <c r="I225" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J225" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="226" spans="7:10">
       <c r="I226" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" spans="7:10">
       <c r="G227" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>29</v>
@@ -5185,12 +5185,12 @@
     </row>
     <row r="228" spans="7:10">
       <c r="I228" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="229" spans="7:10">
       <c r="H229" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
